--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431559.455653193</v>
+        <v>1429671.874136791</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>130.1442998791456</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82.10793655334817</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>164.0555192214676</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>135.5639298479877</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>258.5597350608868</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.6423391917343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3178534391404</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.78350070179</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>176.5305429001556</v>
+        <v>135.0282639333626</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065121</v>
+        <v>151.8879045827408</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>122.6700682149385</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>25.80112942390699</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>41.01015662792861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>75.80960945454576</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>161.2173728122517</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.32381826160631</v>
+        <v>108.5696025109803</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>187.0221006968474</v>
       </c>
       <c r="V31" t="n">
-        <v>125.3777091460876</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3238,7 +3238,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415213</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>920.0552989279781</v>
+        <v>550.6130699431321</v>
       </c>
       <c r="D2" t="n">
-        <v>561.7896003212277</v>
+        <v>192.3473713363816</v>
       </c>
       <c r="E2" t="n">
-        <v>561.7896003212277</v>
+        <v>192.3473713363816</v>
       </c>
       <c r="F2" t="n">
-        <v>554.8440995720242</v>
+        <v>185.4018705871782</v>
       </c>
       <c r="G2" t="n">
-        <v>136.8802914702111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>136.8802914702111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7222632714565</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7222632714565</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7222632714565</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7222632714565</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2505.187139076001</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2505.187139076001</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2251.425353714092</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.362466370522</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1920.362466370522</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1546.896708109442</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1156.75737613363</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4635,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>1915.737096240333</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1546.774579299921</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1188.508880693171</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>802.7206280949267</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>795.7751273457233</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018224</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757144</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>2072.529454785695</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464771</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>184.0273259635866</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084176</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648874</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5048,40 +5048,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500519</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="X13" t="n">
-        <v>542.1367719529251</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529251</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1034.499031194128</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5516,16 +5516,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5604,16 +5604,16 @@
         <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>985.4001231459577</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>816.4639402180508</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>666.347300805715</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>518.4342072233219</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>371.5442597254115</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1472.854523665067</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1472.854523665067</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T19" t="n">
-        <v>1249.069108454573</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U19" t="n">
-        <v>1249.069108454573</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V19" t="n">
-        <v>994.3846202486859</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="W19" t="n">
-        <v>994.3846202486859</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="X19" t="n">
-        <v>766.3950693506686</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.3950693506686</v>
+        <v>1167.048587976197</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.136771952925</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>542.136771952925</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609663</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>944.5778159266948</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>944.5778159266948</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y22" t="n">
-        <v>723.7852367831647</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405891</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405891</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405891</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>909.426853475567</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>620.0096834386064</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X25" t="n">
-        <v>392.0201325405891</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405891</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9005583181199</v>
+        <v>838.7979023112821</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9005583181199</v>
+        <v>669.8617193833752</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185176</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6415,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609671</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550802</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181197</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181199</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181199</v>
+        <v>1020.446367141522</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,25 +6485,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749897</v>
+        <v>656.2176762508388</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749897</v>
+        <v>543.0423586043028</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>448.6865844733379</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>356.5343561723155</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,19 +6619,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1379.716917341973</v>
       </c>
       <c r="V31" t="n">
-        <v>1208.616206009385</v>
+        <v>1180.793294417457</v>
       </c>
       <c r="W31" t="n">
-        <v>974.9599012537956</v>
+        <v>947.1369896618669</v>
       </c>
       <c r="X31" t="n">
-        <v>802.731215637149</v>
+        <v>947.1369896618669</v>
       </c>
       <c r="Y31" t="n">
-        <v>637.6995017749897</v>
+        <v>782.1052757997077</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,13 +6710,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,25 +7193,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7312,16 +7312,16 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>234.4116509503169</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>49.17911248888157</v>
+        <v>90.6813914556746</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518771</v>
+        <v>69.6596564756484</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.82350024843911</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.16322297988582</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.5128417086624</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>176.3280338692823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>57.36728053984305</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.29165475660599</v>
+        <v>40.04587050723208</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.01199507317283</v>
       </c>
       <c r="V31" t="n">
-        <v>71.55667754918333</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977418.8366576799</v>
+        <v>977418.83665768</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="F2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="G2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
@@ -26335,13 +26335,13 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470613</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="M2" t="n">
         <v>472099.0176719629</v>
@@ -26350,7 +26350,7 @@
         <v>472099.0176719627</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719627</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925152</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220289</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141179</v>
+        <v>-189736.0104400903</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368057</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701849</v>
+        <v>159000.8068442127</v>
       </c>
       <c r="K6" t="n">
-        <v>286715.4140129256</v>
+        <v>286696.920274991</v>
       </c>
       <c r="L6" t="n">
-        <v>319447.6102228793</v>
+        <v>319447.6102228792</v>
       </c>
       <c r="M6" t="n">
-        <v>194989.5017899092</v>
+        <v>194989.501789909</v>
       </c>
       <c r="N6" t="n">
         <v>329790.5170237462</v>
@@ -26561,7 +26561,7 @@
         <v>329790.5170237462</v>
       </c>
       <c r="P6" t="n">
-        <v>285627.9117209005</v>
+        <v>285627.9117209004</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.6398701416495</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>69.82337969151308</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9594002052140524</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>242.8205265202438</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>38.8517829609838</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>155.2244349599082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.5955994643193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594874</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.92615468724716</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>355.8957474878089</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>567.6062243483298</v>
+        <v>556.8688383914609</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,10 +36759,10 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38190,10 +38190,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
